--- a/Jupyter/simulationID/cim_0315_1240/data/script/script_ssi.xlsx
+++ b/Jupyter/simulationID/cim_0315_1240/data/script/script_ssi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shai/Google Drive/BatYam NY DRIVE/Simulations/March 4 2020 After NYC/Jupyter/simulationID/cim_0315_1240/data/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C383674-70F2-D445-AC40-8218942C084E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B637FA-912C-2F48-9574-4A14071AA977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31980" windowHeight="20540" xr2:uid="{A86D1036-0752-124D-A288-1321B8986789}"/>
+    <workbookView xWindow="33600" yWindow="-2680" windowWidth="33600" windowHeight="20540" xr2:uid="{A86D1036-0752-124D-A288-1321B8986789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>index</t>
   </si>
@@ -125,9 +125,6 @@
     <t>מסריק 4, בת ים</t>
   </si>
   <si>
-    <t>ארלוזורוב 9, בת ים</t>
-  </si>
-  <si>
     <t>תמ״א 38/2</t>
   </si>
   <si>
@@ -179,17 +176,149 @@
     <t>Tax and Maintenace</t>
   </si>
   <si>
-    <t>502_0147678</t>
-  </si>
-  <si>
     <t>502-0178285</t>
+  </si>
+  <si>
+    <t>216_7</t>
+  </si>
+  <si>
+    <t>originalRentPercent</t>
+  </si>
+  <si>
+    <t>bldgs_4a</t>
+  </si>
+  <si>
+    <t>מסריק 7, בת ים</t>
+  </si>
+  <si>
+    <t>סוקולוב 15, בת ים</t>
+  </si>
+  <si>
+    <t>215_15</t>
+  </si>
+  <si>
+    <t>bldgs_5a</t>
+  </si>
+  <si>
+    <t>bldgs_7a</t>
+  </si>
+  <si>
+    <t>ארלוזורוב 6, בת ים</t>
+  </si>
+  <si>
+    <t>209_8</t>
+  </si>
+  <si>
+    <t>ארלוזורוב 8, בת ים</t>
+  </si>
+  <si>
+    <t>הלפר 12, בת ים</t>
+  </si>
+  <si>
+    <t>208_12</t>
+  </si>
+  <si>
+    <t>bldgs_8a</t>
+  </si>
+  <si>
+    <t>210_56</t>
+  </si>
+  <si>
+    <t>הרצל 56, בת ים</t>
+  </si>
+  <si>
+    <t>bldgs_9a</t>
+  </si>
+  <si>
+    <t>210_11</t>
+  </si>
+  <si>
+    <t>הרצל 11, בת ים</t>
+  </si>
+  <si>
+    <t>bldgs_10a</t>
+  </si>
+  <si>
+    <t>216_3</t>
+  </si>
+  <si>
+    <t>מסריק 3, בת ים</t>
+  </si>
+  <si>
+    <t>bldgs_11a</t>
+  </si>
+  <si>
+    <t>215_18</t>
+  </si>
+  <si>
+    <t>סוקולוב 18, בת ים</t>
+  </si>
+  <si>
+    <t>bldgs_12a</t>
+  </si>
+  <si>
+    <t>215_24</t>
+  </si>
+  <si>
+    <t>סוקולוב 24, בת ים</t>
+  </si>
+  <si>
+    <t>bldgs_13a</t>
+  </si>
+  <si>
+    <t>220_4</t>
+  </si>
+  <si>
+    <t>רוטשילד 4, בת ים</t>
+  </si>
+  <si>
+    <t>bldgs_14a</t>
+  </si>
+  <si>
+    <t>502-0147678</t>
+  </si>
+  <si>
+    <t>complex_215_2</t>
+  </si>
+  <si>
+    <t>bldgs_15a</t>
+  </si>
+  <si>
+    <t>רוטשילד2 וסוקלוב 2, בת ים</t>
+  </si>
+  <si>
+    <t>polygon_502_0147678.xlsx</t>
+  </si>
+  <si>
+    <t>bldgs_16a</t>
+  </si>
+  <si>
+    <t>complex_16</t>
+  </si>
+  <si>
+    <t>דוד מסיקה 6,8 והרצל 8</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>polygon_502_0178285.xlsx</t>
+  </si>
+  <si>
+    <t>212_53</t>
+  </si>
+  <si>
+    <t>bldgs_17a</t>
+  </si>
+  <si>
+    <t>בן גוריון 53, בת ים</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +343,19 @@
       <sz val="12"/>
       <color rgb="FF2AA198"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -263,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -278,6 +420,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,31 +737,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807C292D-0617-114F-905A-ECB223F31F24}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8:R15"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" customWidth="1"/>
-    <col min="13" max="13" width="34.6640625" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
-    <col min="22" max="22" width="15.1640625" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,70 +777,73 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -706,74 +856,79 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
+        <f>7/33</f>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="F2" s="1">
         <v>88</v>
       </c>
-      <c r="F2">
-        <v>22930</v>
-      </c>
       <c r="G2">
+        <f>22930/1.2</f>
+        <v>19108.333333333336</v>
+      </c>
+      <c r="H2">
         <v>62</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="I2" s="7">
+      <c r="J2" s="7">
         <v>5.4358000000000004</v>
       </c>
-      <c r="J2" s="7">
-        <f>INT(I2*E2)</f>
+      <c r="K2" s="7">
+        <f>INT(J2*F2)</f>
         <v>478</v>
       </c>
-      <c r="K2">
-        <f>F2*E2</f>
-        <v>2017840</v>
-      </c>
       <c r="L2">
-        <f>G2*E2+H2+J2</f>
+        <f>G2*F2</f>
+        <v>1681533.3333333335</v>
+      </c>
+      <c r="M2">
+        <f>H2*F2+I2+K2</f>
         <v>6034</v>
       </c>
-      <c r="M2">
-        <f>J2+H2</f>
+      <c r="N2">
+        <f>K2+I2</f>
         <v>578</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>175764</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>658989</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>20140882</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
         <f>"before_"&amp;B2&amp;".xlsx"</f>
         <v>before_215_22.xlsx</v>
       </c>
-      <c r="U2" t="str">
+      <c r="V2" t="str">
         <f>"after_"&amp;B2&amp;".xlsx"</f>
         <v>after_215_22.xlsx</v>
       </c>
-      <c r="W2" t="s">
-        <v>40</v>
-      </c>
       <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -787,73 +942,78 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>123</v>
+        <f>6/20</f>
+        <v>0.3</v>
       </c>
       <c r="F3">
-        <v>24376</v>
+        <v>100</v>
       </c>
       <c r="G3">
+        <f>24376/1.2</f>
+        <v>20313.333333333336</v>
+      </c>
+      <c r="H3">
         <v>68</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I3" s="7">
+      <c r="J3" s="7">
         <v>5.4358000000000004</v>
       </c>
-      <c r="J3" s="7">
-        <f t="shared" ref="J3:J5" si="0">INT(I3*E3)</f>
-        <v>668</v>
-      </c>
-      <c r="K3">
-        <f>F3*E3</f>
-        <v>2998248</v>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K5" si="0">INT(J3*F3)</f>
+        <v>543</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L5" si="1">G3*E3+H3+J3</f>
-        <v>9132</v>
+        <f>G3*F3</f>
+        <v>2031333.3333333335</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M5" si="2">J3+H3</f>
-        <v>768</v>
+        <f t="shared" ref="M3:M6" si="1">H3*F3+I3+K3</f>
+        <v>7443</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N3:N6" si="2">K3+I3</f>
+        <v>643</v>
+      </c>
+      <c r="O3">
         <v>175672</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>659031</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>20120398</v>
       </c>
-      <c r="T3" t="str">
+      <c r="U3" t="str">
         <f>"before_"&amp;B3&amp;".xlsx"</f>
         <v>before_216_10.xlsx</v>
       </c>
-      <c r="U3" t="str">
+      <c r="V3" t="str">
         <f>"after_"&amp;B3&amp;".xlsx"</f>
         <v>after_216_10.xlsx</v>
       </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
       <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -867,106 +1027,252 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <f>12/19</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="F4">
         <v>94</v>
       </c>
-      <c r="F4">
-        <v>23351</v>
-      </c>
       <c r="G4">
+        <f>23351/1.2</f>
+        <v>19459.166666666668</v>
+      </c>
+      <c r="H4">
         <v>67</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="I4" s="7">
+      <c r="J4" s="7">
         <v>5.4358000000000004</v>
       </c>
-      <c r="J4" s="7">
+      <c r="K4" s="7">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="K4">
-        <f>F4*E4</f>
-        <v>2194994</v>
-      </c>
       <c r="L4">
+        <f>G4*F4</f>
+        <v>1829161.6666666667</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="1"/>
         <v>6908</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>175687</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>659077</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>16</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>20141086</v>
       </c>
-      <c r="T4" t="str">
+      <c r="U4" t="str">
         <f>"before_"&amp;B4&amp;".xlsx"</f>
         <v>before_216_4.xlsx</v>
       </c>
-      <c r="U4" t="str">
+      <c r="V4" t="str">
         <f>"after_"&amp;B4&amp;".xlsx"</f>
         <v>after_216_4.xlsx</v>
       </c>
-      <c r="W4" t="s">
-        <v>43</v>
-      </c>
       <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>8/25</f>
+        <v>0.32</v>
+      </c>
+      <c r="F5">
+        <v>75</v>
+      </c>
+      <c r="G5">
+        <f>2500/1.2</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K5" s="7">
+        <f>INT(J5*F5)</f>
+        <v>407</v>
+      </c>
+      <c r="L5">
+        <f>G5*F5</f>
+        <v>156250</v>
+      </c>
+      <c r="M5">
+        <v>6000</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>507</v>
+      </c>
+      <c r="O5">
+        <v>175720</v>
+      </c>
+      <c r="P5">
+        <v>659014</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
         <v>11</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>16</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>20160636</v>
       </c>
+      <c r="U5" t="str">
+        <f>"before_"&amp;B5&amp;".xlsx"</f>
+        <v>before_216_7.xlsx</v>
+      </c>
+      <c r="V5" t="str">
+        <f>"after_"&amp;B5&amp;".xlsx"</f>
+        <v>after_216_7.xlsx</v>
+      </c>
+      <c r="X5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>8/16</f>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <f>21731.335/1.2</f>
+        <v>18109.445833333335</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K6" s="9">
+        <f>INT(J6*F6)</f>
+        <v>434</v>
+      </c>
+      <c r="L6">
+        <f>G6*F6</f>
+        <v>1448755.6666666667</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5334</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>534</v>
+      </c>
+      <c r="O6">
+        <v>175802</v>
+      </c>
+      <c r="P6">
+        <v>659095</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
         <v>11</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>16</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>20140449</v>
       </c>
+      <c r="U6" s="6" t="str">
+        <f>"before_"&amp;B6&amp;".xlsx"</f>
+        <v>before_215_15.xlsx</v>
+      </c>
+      <c r="V6" s="6" t="str">
+        <f>"after_"&amp;B6&amp;".xlsx"</f>
+        <v>after_215_15.xlsx</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -975,218 +1281,1014 @@
         <v>3</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>94</v>
       </c>
-      <c r="F7">
-        <v>22922</v>
-      </c>
       <c r="G7">
+        <f>22922/1.2</f>
+        <v>19101.666666666668</v>
+      </c>
+      <c r="H7">
         <v>50</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>100</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>5.4358000000000004</v>
       </c>
-      <c r="J7" s="7">
-        <f>INT(I7*E7)</f>
+      <c r="K7" s="7">
+        <f>INT(J7*F7)</f>
         <v>510</v>
       </c>
-      <c r="K7">
-        <f>F7*E7</f>
-        <v>2154668</v>
-      </c>
       <c r="L7">
-        <f>G7*E7+H7+J7</f>
+        <f>G7*F7</f>
+        <v>1795556.6666666667</v>
+      </c>
+      <c r="M7">
+        <f>H7*F7+I7+K7</f>
         <v>5310</v>
       </c>
-      <c r="M7">
-        <f>J7+H7</f>
+      <c r="N7">
+        <f>K7+I7</f>
         <v>610</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>175958</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>659687</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>11</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>20140231</v>
       </c>
-      <c r="T7" t="str">
+      <c r="U7" t="str">
         <f>"before_"&amp;B7&amp;".xlsx"</f>
         <v>before_209_6.xlsx</v>
       </c>
-      <c r="U7" t="str">
+      <c r="V7" t="str">
         <f>"after_"&amp;B7&amp;".xlsx"</f>
         <v>after_209_6.xlsx</v>
       </c>
-      <c r="W7" t="s">
-        <v>41</v>
-      </c>
       <c r="X7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>11/40</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <f>23869/1.2</f>
+        <v>19890.833333333336</v>
+      </c>
+      <c r="H8">
+        <f>ROUND(85/1.2,0)</f>
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K8" s="7">
+        <f>INT(J8*F8)</f>
+        <v>407</v>
+      </c>
+      <c r="L8">
+        <f>G8*F8</f>
+        <v>1491812.5000000002</v>
+      </c>
+      <c r="M8">
+        <f>H8*F8+I8+K8</f>
+        <v>5832</v>
+      </c>
+      <c r="N8">
+        <f>K8+I8</f>
+        <v>507</v>
+      </c>
+      <c r="O8">
+        <v>175948</v>
+      </c>
+      <c r="P8">
+        <v>659647</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>11</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>16</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>20120894</v>
       </c>
+      <c r="U8" t="str">
+        <f>"before_"&amp;B8&amp;".xlsx"</f>
+        <v>before_209_8.xlsx</v>
+      </c>
+      <c r="V8" t="str">
+        <f>"after_"&amp;B8&amp;".xlsx"</f>
+        <v>after_209_8.xlsx</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f>7/24</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F9">
+        <v>85</v>
+      </c>
+      <c r="G9" s="8">
+        <v>18357.297999999999</v>
+      </c>
+      <c r="H9" s="8">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K9" s="7">
+        <f>INT(J9*F9)</f>
+        <v>462</v>
+      </c>
+      <c r="L9">
+        <f>G9*F9</f>
+        <v>1560370.3299999998</v>
+      </c>
+      <c r="M9">
+        <f>H9*F9+I9+K9</f>
+        <v>5832</v>
+      </c>
+      <c r="N9">
+        <f>K9+I9</f>
+        <v>562</v>
+      </c>
+      <c r="O9">
+        <v>175920</v>
+      </c>
+      <c r="P9">
+        <v>659469</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
         <v>11</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>16</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>20181295</v>
       </c>
+      <c r="U9" t="str">
+        <f>"before_"&amp;B9&amp;".xlsx"</f>
+        <v>before_208_12.xlsx</v>
+      </c>
+      <c r="V9" t="str">
+        <f>"after_"&amp;B9&amp;".xlsx"</f>
+        <v>after_208_12.xlsx</v>
+      </c>
+      <c r="X9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8">
+        <f>21994.789/1.2</f>
+        <v>18328.990833333333</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(74/1.1,0)</f>
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K10" s="7">
+        <f>INT(J10*F10)</f>
+        <v>353</v>
+      </c>
+      <c r="L10">
+        <f>G10*F10</f>
+        <v>1191384.4041666666</v>
+      </c>
+      <c r="M10">
+        <f>H10*F10+I10+K10</f>
+        <v>4808</v>
+      </c>
+      <c r="N10">
+        <f>K10+I10</f>
+        <v>453</v>
+      </c>
+      <c r="O10">
+        <v>175858</v>
+      </c>
+      <c r="P10">
+        <v>659064</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>16</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>20180335</v>
       </c>
+      <c r="U10" t="str">
+        <f>"before_"&amp;B10&amp;".xlsx"</f>
+        <v>before_210_56.xlsx</v>
+      </c>
+      <c r="V10" t="str">
+        <f>"after_"&amp;B10&amp;".xlsx"</f>
+        <v>after_210_56.xlsx</v>
+      </c>
+      <c r="X10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="B11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="G11" s="8">
+        <v>19858.652999999998</v>
+      </c>
+      <c r="H11">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K11" s="7">
+        <f>INT(J11*F11)</f>
+        <v>462</v>
+      </c>
+      <c r="L11">
+        <f>G11*F11</f>
+        <v>1687985.5049999999</v>
+      </c>
+      <c r="M11">
+        <f>H11*F11+I11+K11</f>
+        <v>6087</v>
+      </c>
+      <c r="N11">
+        <f>K11+I11</f>
+        <v>562</v>
+      </c>
+      <c r="O11">
+        <v>175912</v>
+      </c>
+      <c r="P11">
+        <v>659631</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>16</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>20150274</v>
       </c>
+      <c r="U11" t="str">
+        <f>"before_"&amp;B11&amp;".xlsx"</f>
+        <v>before_210_11.xlsx</v>
+      </c>
+      <c r="V11" t="str">
+        <f>"after_"&amp;B11&amp;".xlsx"</f>
+        <v>after_210_11.xlsx</v>
+      </c>
+      <c r="X11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f>10/37</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="F12">
+        <v>78</v>
+      </c>
+      <c r="G12" s="8">
+        <f>20676.289</f>
+        <v>20676.289000000001</v>
+      </c>
+      <c r="H12">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K12" s="10">
+        <f>INT(J12*F12)</f>
+        <v>423</v>
+      </c>
+      <c r="L12">
+        <f>G12*F12</f>
+        <v>1612750.5420000001</v>
+      </c>
+      <c r="M12">
+        <f>H12*F12+I12+K12</f>
+        <v>5359</v>
+      </c>
+      <c r="N12">
+        <f>K12+I12</f>
+        <v>523</v>
+      </c>
+      <c r="O12" s="8">
+        <v>175736</v>
+      </c>
+      <c r="P12" s="8">
+        <v>659078</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>16</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>20141190</v>
       </c>
+      <c r="U12" t="str">
+        <f>"before_"&amp;B12&amp;".xlsx"</f>
+        <v>before_216_3.xlsx</v>
+      </c>
+      <c r="V12" t="str">
+        <f>"after_"&amp;B12&amp;".xlsx"</f>
+        <v>after_216_3.xlsx</v>
+      </c>
+      <c r="X12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>6/15</f>
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>83</v>
+      </c>
+      <c r="G13" s="8">
+        <f>22956.143/1.2</f>
+        <v>19130.119166666667</v>
+      </c>
+      <c r="H13" s="8">
+        <v>53</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K13" s="10">
+        <f>INT(J13*F13)</f>
+        <v>451</v>
+      </c>
+      <c r="L13">
+        <f>G13*F13</f>
+        <v>1587799.8908333334</v>
+      </c>
+      <c r="M13">
+        <f>H13*F13+I13+K13</f>
+        <v>4950</v>
+      </c>
+      <c r="N13">
+        <f>K13+I13</f>
+        <v>551</v>
+      </c>
+      <c r="O13" s="8">
+        <v>175768</v>
+      </c>
+      <c r="P13" s="8">
+        <v>659033</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
         <v>11</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>16</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>20140060</v>
       </c>
+      <c r="U13" t="str">
+        <f>"before_"&amp;B13&amp;".xlsx"</f>
+        <v>before_215_18.xlsx</v>
+      </c>
+      <c r="V13" t="str">
+        <f>"after_"&amp;B13&amp;".xlsx"</f>
+        <v>after_215_18.xlsx</v>
+      </c>
+      <c r="X13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="B14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F14">
+        <v>74</v>
+      </c>
+      <c r="G14" s="8">
+        <f>23330.288/1.2</f>
+        <v>19441.906666666669</v>
+      </c>
+      <c r="H14">
+        <v>65</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K14" s="10">
+        <f>INT(J14*F14)</f>
+        <v>402</v>
+      </c>
+      <c r="L14">
+        <f>G14*F14</f>
+        <v>1438701.0933333335</v>
+      </c>
+      <c r="M14" s="8">
+        <f>H14*F14+I14+K14</f>
+        <v>5312</v>
+      </c>
+      <c r="N14" s="8">
+        <f>K14+I14</f>
+        <v>502</v>
+      </c>
+      <c r="O14" s="8">
+        <v>175764</v>
+      </c>
+      <c r="P14" s="8">
+        <v>658971</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
         <v>11</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>16</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>20110270</v>
       </c>
+      <c r="U14" t="str">
+        <f>"before_"&amp;B14&amp;".xlsx"</f>
+        <v>before_215_24.xlsx</v>
+      </c>
+      <c r="V14" t="str">
+        <f>"after_"&amp;B14&amp;".xlsx"</f>
+        <v>after_215_24.xlsx</v>
+      </c>
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f>2/16</f>
+        <v>0.125</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
+      <c r="G15" s="8">
+        <v>19110.503000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K15" s="10">
+        <f>INT(J15*F15)</f>
+        <v>440</v>
+      </c>
+      <c r="L15">
+        <f>G15*F15</f>
+        <v>1547950.743</v>
+      </c>
+      <c r="M15" s="10">
+        <f>H15*F15+I15+K15</f>
+        <v>5805</v>
+      </c>
+      <c r="N15" s="10">
+        <f>K15+I15</f>
+        <v>540</v>
+      </c>
+      <c r="O15">
+        <v>175786</v>
+      </c>
+      <c r="P15" s="8">
+        <v>659333</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>16</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>20131419</v>
       </c>
+      <c r="U15" t="str">
+        <f>"before_"&amp;B15&amp;".xlsx"</f>
+        <v>before_220_4.xlsx</v>
+      </c>
+      <c r="V15" t="str">
+        <f>"after_"&amp;B15&amp;".xlsx"</f>
+        <v>after_220_4.xlsx</v>
+      </c>
+      <c r="X15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8">
+        <f>23570.736</f>
+        <v>23570.736000000001</v>
+      </c>
+      <c r="H16">
+        <v>65</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K16" s="10">
+        <f>INT(J16*F16)</f>
+        <v>434</v>
+      </c>
+      <c r="L16">
+        <f>G16*F16</f>
+        <v>1885658.8800000001</v>
+      </c>
+      <c r="M16" s="10">
+        <f>H16*F16+I16+K16</f>
+        <v>5734</v>
+      </c>
+      <c r="N16" s="10">
+        <f>K16+I16</f>
+        <v>534</v>
+      </c>
+      <c r="O16" s="8">
+        <v>175747</v>
+      </c>
+      <c r="P16" s="8">
+        <v>659326</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S16" t="s">
-        <v>48</v>
+      <c r="T16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" t="str">
+        <f>"before_"&amp;B16&amp;".xlsx"</f>
+        <v>before_complex_215_2.xlsx</v>
+      </c>
+      <c r="V16" t="str">
+        <f>"after_"&amp;B16&amp;".xlsx"</f>
+        <v>after_complex_215_2.xlsx</v>
+      </c>
+      <c r="W16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="Q17" t="s">
-        <v>34</v>
+      <c r="B17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f>58/118</f>
+        <v>0.49152542372881358</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>23800</v>
+      </c>
+      <c r="H17" s="8">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K17" s="10">
+        <f>INT(J17*F17)</f>
+        <v>353</v>
+      </c>
+      <c r="L17">
+        <f>G17*F17</f>
+        <v>1547000</v>
+      </c>
+      <c r="M17" s="10">
+        <f>H17*F17+I17+K17</f>
+        <v>4548</v>
+      </c>
+      <c r="N17" s="10">
+        <f>K17+I17</f>
+        <v>453</v>
+      </c>
+      <c r="O17" s="8">
+        <v>175891</v>
+      </c>
+      <c r="P17" s="8">
+        <v>659752</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>33</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="T17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" t="str">
+        <f>"before_"&amp;B17&amp;".xlsx"</f>
+        <v>before_complex_16.xlsx</v>
+      </c>
+      <c r="V17" t="str">
+        <f>"after_"&amp;B17&amp;".xlsx"</f>
+        <v>after_complex_16.xlsx</v>
+      </c>
+      <c r="W17" t="s">
+        <v>89</v>
+      </c>
+      <c r="X17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f>7/33</f>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="F18">
+        <v>85</v>
+      </c>
+      <c r="G18">
+        <f>23315.381/1.1</f>
+        <v>21195.800909090907</v>
+      </c>
+      <c r="H18">
+        <v>65</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18" s="7">
+        <v>5.4358000000000004</v>
+      </c>
+      <c r="K18" s="10">
+        <f>INT(J18*F18)</f>
+        <v>462</v>
+      </c>
+      <c r="L18">
+        <f>G18*F18</f>
+        <v>1801643.0772727272</v>
+      </c>
+      <c r="M18" s="10">
+        <f>H18*F18+I18+K18</f>
+        <v>6087</v>
+      </c>
+      <c r="N18" s="10">
+        <f>K18+I18</f>
+        <v>562</v>
+      </c>
+      <c r="O18" s="8">
+        <v>175678</v>
+      </c>
+      <c r="P18" s="8">
+        <v>659228</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
         <v>11</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18">
         <v>20160319</v>
       </c>
+      <c r="U18" t="str">
+        <f>"before_"&amp;B18&amp;".xlsx"</f>
+        <v>before_212_53.xlsx</v>
+      </c>
+      <c r="V18" t="str">
+        <f>"after_"&amp;B18&amp;".xlsx"</f>
+        <v>after_212_53.xlsx</v>
+      </c>
+      <c r="X18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1200,77 +2302,95 @@
       <c r="D19">
         <v>2.5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>72</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>21336</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>62</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>5.4358000000000004</v>
       </c>
-      <c r="J19" s="7">
-        <f>INT(I19*E19)</f>
+      <c r="K19" s="7">
+        <f>INT(J19*F19)</f>
         <v>391</v>
       </c>
-      <c r="K19" s="6">
-        <f>F19*E19</f>
+      <c r="L19" s="6">
+        <f>G19*F19</f>
         <v>1536192</v>
       </c>
-      <c r="L19">
-        <f>G19*E19+H19+J19</f>
+      <c r="M19">
+        <f>H19*F19+I19+K19</f>
         <v>4955</v>
       </c>
-      <c r="M19">
-        <f>J19+H19</f>
+      <c r="N19">
+        <f>K19+I19</f>
         <v>491</v>
       </c>
-      <c r="N19">
+      <c r="O19" s="8">
         <v>175839</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>659613</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" t="s">
         <v>34</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>35</v>
       </c>
-      <c r="S19" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" t="str">
+      <c r="U19" t="str">
         <f>"before_"&amp;B19&amp;".xlsx"</f>
         <v>before_complex_17.xlsx</v>
       </c>
-      <c r="U19" t="str">
+      <c r="V19" t="str">
         <f>"after_"&amp;B19&amp;".xlsx"</f>
         <v>after_complex_17.xlsx</v>
       </c>
-      <c r="V19" t="s">
-        <v>33</v>
-      </c>
       <c r="W19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Y19" t="s">
         <v>37</v>
       </c>
+      <c r="Z19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>